--- a/Data_frame/balancos_definitivos/BICB4.xlsx
+++ b/Data_frame/balancos_definitivos/BICB4.xlsx
@@ -6566,7 +6566,7 @@
         <v>964296</v>
       </c>
       <c r="H58" t="n">
-        <v>229406.848</v>
+        <v>229406.944</v>
       </c>
       <c r="I58" t="n">
         <v>432056</v>
@@ -6578,7 +6578,7 @@
         <v>352224</v>
       </c>
       <c r="L58" t="n">
-        <v>358572.928</v>
+        <v>358572.992</v>
       </c>
       <c r="M58" t="n">
         <v>462614.016</v>
@@ -6590,7 +6590,7 @@
         <v>537833.9840000001</v>
       </c>
       <c r="P58" t="n">
-        <v>456921.984</v>
+        <v>456922.016</v>
       </c>
       <c r="Q58" t="n">
         <v>622648</v>
@@ -6602,7 +6602,7 @@
         <v>1185938.944</v>
       </c>
       <c r="T58" t="n">
-        <v>46166.016</v>
+        <v>46166.08</v>
       </c>
       <c r="U58" t="n">
         <v>552489.024</v>
@@ -6614,7 +6614,7 @@
         <v>541299.968</v>
       </c>
       <c r="X58" t="n">
-        <v>615957.248</v>
+        <v>615957.12</v>
       </c>
       <c r="Y58" t="n">
         <v>432491.008</v>
@@ -6638,7 +6638,7 @@
         <v>749366.976</v>
       </c>
       <c r="AF58" t="n">
-        <v>510714.112</v>
+        <v>510714.048</v>
       </c>
       <c r="AG58" t="n">
         <v>1125122.944</v>
@@ -6672,7 +6672,7 @@
         <v>-711579.008</v>
       </c>
       <c r="H59" t="n">
-        <v>-114372.992</v>
+        <v>-114373.008</v>
       </c>
       <c r="I59" t="n">
         <v>-271110.016</v>
@@ -6684,7 +6684,7 @@
         <v>-166883.008</v>
       </c>
       <c r="L59" t="n">
-        <v>-156210.944</v>
+        <v>-156210.96</v>
       </c>
       <c r="M59" t="n">
         <v>-272268.992</v>
@@ -6708,7 +6708,7 @@
         <v>-1028328</v>
       </c>
       <c r="T59" t="n">
-        <v>108249.984</v>
+        <v>108250.016</v>
       </c>
       <c r="U59" t="n">
         <v>-404031.008</v>
@@ -6720,7 +6720,7 @@
         <v>-437703.008</v>
       </c>
       <c r="X59" t="n">
-        <v>-418814.976</v>
+        <v>-418814.912</v>
       </c>
       <c r="Y59" t="n">
         <v>-363609.984</v>
@@ -6732,7 +6732,7 @@
         <v>-426148</v>
       </c>
       <c r="AB59" t="n">
-        <v>-472089.088</v>
+        <v>-472089.056</v>
       </c>
       <c r="AC59" t="n">
         <v>-334748.992</v>
@@ -6778,7 +6778,7 @@
         <v>252716.992</v>
       </c>
       <c r="H60" t="n">
-        <v>115034.048</v>
+        <v>115034.016</v>
       </c>
       <c r="I60" t="n">
         <v>160946</v>
@@ -6790,7 +6790,7 @@
         <v>185340.992</v>
       </c>
       <c r="L60" t="n">
-        <v>202361.984</v>
+        <v>202362</v>
       </c>
       <c r="M60" t="n">
         <v>190344.992</v>
@@ -6814,7 +6814,7 @@
         <v>157611.008</v>
       </c>
       <c r="T60" t="n">
-        <v>154415.936</v>
+        <v>154415.984</v>
       </c>
       <c r="U60" t="n">
         <v>148458</v>
@@ -6850,7 +6850,7 @@
         <v>-493806.016</v>
       </c>
       <c r="AF60" t="n">
-        <v>-213181.952</v>
+        <v>-213181.984</v>
       </c>
       <c r="AG60" t="n">
         <v>-221108</v>
@@ -6896,7 +6896,7 @@
         <v>-75895</v>
       </c>
       <c r="L61" t="n">
-        <v>-86588.992</v>
+        <v>-86589</v>
       </c>
       <c r="M61" t="n">
         <v>-83023</v>
@@ -6908,7 +6908,7 @@
         <v>-102910</v>
       </c>
       <c r="P61" t="n">
-        <v>-58016.992</v>
+        <v>-58017</v>
       </c>
       <c r="Q61" t="n">
         <v>-91838</v>
@@ -6920,7 +6920,7 @@
         <v>-102402</v>
       </c>
       <c r="T61" t="n">
-        <v>-96830.976</v>
+        <v>-96830.984</v>
       </c>
       <c r="U61" t="n">
         <v>-101179</v>
@@ -6932,7 +6932,7 @@
         <v>-89067</v>
       </c>
       <c r="X61" t="n">
-        <v>-185326.976</v>
+        <v>-185326.992</v>
       </c>
       <c r="Y61" t="n">
         <v>-96158</v>
@@ -6944,7 +6944,7 @@
         <v>-82410</v>
       </c>
       <c r="AB61" t="n">
-        <v>-107958</v>
+        <v>-107957.992</v>
       </c>
       <c r="AC61" t="n">
         <v>-98679</v>
@@ -7168,7 +7168,7 @@
         <v>-52593</v>
       </c>
       <c r="AF63" t="n">
-        <v>-53299.008</v>
+        <v>-53299</v>
       </c>
       <c r="AG63" t="n">
         <v>-48381</v>
@@ -7556,7 +7556,7 @@
         <v>-49411</v>
       </c>
       <c r="T67" t="n">
-        <v>-28577.984</v>
+        <v>-28577.992</v>
       </c>
       <c r="U67" t="n">
         <v>-32500</v>
@@ -7592,7 +7592,7 @@
         <v>-34465</v>
       </c>
       <c r="AF67" t="n">
-        <v>-68224.992</v>
+        <v>-68225</v>
       </c>
       <c r="AG67" t="n">
         <v>-28901</v>
@@ -7744,7 +7744,7 @@
         <v>109446</v>
       </c>
       <c r="L69" t="n">
-        <v>115772.992</v>
+        <v>115773</v>
       </c>
       <c r="M69" t="n">
         <v>107322</v>
@@ -7756,7 +7756,7 @@
         <v>150704.992</v>
       </c>
       <c r="P69" t="n">
-        <v>133853.984</v>
+        <v>133854.008</v>
       </c>
       <c r="Q69" t="n">
         <v>133969</v>
@@ -7768,7 +7768,7 @@
         <v>55209</v>
       </c>
       <c r="T69" t="n">
-        <v>57585.024</v>
+        <v>57585.016</v>
       </c>
       <c r="U69" t="n">
         <v>47279</v>
@@ -7804,7 +7804,7 @@
         <v>-602152</v>
       </c>
       <c r="AF69" t="n">
-        <v>-363140.992</v>
+        <v>-363140.96</v>
       </c>
       <c r="AG69" t="n">
         <v>-306519.008</v>
@@ -8156,7 +8156,7 @@
         <v>169834</v>
       </c>
       <c r="H73" t="n">
-        <v>4238.016</v>
+        <v>4238</v>
       </c>
       <c r="I73" t="n">
         <v>123059</v>
@@ -8180,7 +8180,7 @@
         <v>150616.992</v>
       </c>
       <c r="P73" t="n">
-        <v>133984</v>
+        <v>133984.024</v>
       </c>
       <c r="Q73" t="n">
         <v>132249</v>
@@ -8262,7 +8262,7 @@
         <v>-68811</v>
       </c>
       <c r="H74" t="n">
-        <v>-50303.008</v>
+        <v>-50303</v>
       </c>
       <c r="I74" t="n">
         <v>-77960</v>
@@ -8274,7 +8274,7 @@
         <v>-29417</v>
       </c>
       <c r="L74" t="n">
-        <v>17424</v>
+        <v>17424.008</v>
       </c>
       <c r="M74" t="n">
         <v>-50275</v>
@@ -8286,7 +8286,7 @@
         <v>-73152</v>
       </c>
       <c r="P74" t="n">
-        <v>17602.992</v>
+        <v>17603</v>
       </c>
       <c r="Q74" t="n">
         <v>-38157</v>
@@ -8709,63 +8709,25 @@
       <c r="O78" t="n">
         <v>0</v>
       </c>
-      <c r="P78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>0</v>
-      </c>
-      <c r="R78" t="n">
-        <v>0</v>
-      </c>
-      <c r="S78" t="n">
-        <v>0</v>
-      </c>
-      <c r="T78" t="n">
-        <v>0</v>
-      </c>
-      <c r="U78" t="n">
-        <v>0</v>
-      </c>
-      <c r="V78" t="n">
-        <v>0</v>
-      </c>
-      <c r="W78" t="n">
-        <v>0</v>
-      </c>
-      <c r="X78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH78" t="n">
-        <v>0</v>
-      </c>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
+      <c r="AB78" t="inlineStr"/>
+      <c r="AC78" t="inlineStr"/>
+      <c r="AD78" t="inlineStr"/>
+      <c r="AE78" t="inlineStr"/>
+      <c r="AF78" t="inlineStr"/>
+      <c r="AG78" t="inlineStr"/>
+      <c r="AH78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8792,7 +8754,7 @@
         <v>103640</v>
       </c>
       <c r="H79" t="n">
-        <v>20282.016</v>
+        <v>20282.008</v>
       </c>
       <c r="I79" t="n">
         <v>74308</v>
@@ -8804,7 +8766,7 @@
         <v>76086</v>
       </c>
       <c r="L79" t="n">
-        <v>85844.992</v>
+        <v>85845</v>
       </c>
       <c r="M79" t="n">
         <v>80251</v>
@@ -8816,7 +8778,7 @@
         <v>100566</v>
       </c>
       <c r="P79" t="n">
-        <v>69474.016</v>
+        <v>69474.008</v>
       </c>
       <c r="Q79" t="n">
         <v>82952</v>
@@ -8828,7 +8790,7 @@
         <v>51999</v>
       </c>
       <c r="T79" t="n">
-        <v>30634.016</v>
+        <v>30634.008</v>
       </c>
       <c r="U79" t="n">
         <v>40610</v>
